--- a/example-input/E-MTAB-5061-small.xlsx
+++ b/example-input/E-MTAB-5061-small.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="17460" activeTab="5"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="17460" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -346,9 +346,6 @@
     <t>"HP1504901_H1.fastq.gz"</t>
   </si>
   <si>
-    <t>reads</t>
-  </si>
-  <si>
     <t>ERR1630013.fastq.gz</t>
   </si>
   <si>
@@ -497,6 +494,9 @@
   </si>
   <si>
     <t>"l4"</t>
+  </si>
+  <si>
+    <t>r1</t>
   </si>
 </sst>
 </file>
@@ -848,15 +848,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
         <v>112</v>
-      </c>
-      <c r="B1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -1033,7 +1033,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1041,7 +1041,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1093,28 +1093,28 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" t="s">
         <v>119</v>
-      </c>
-      <c r="H1" t="s">
-        <v>120</v>
       </c>
       <c r="I1" t="s">
         <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" t="s">
         <v>128</v>
-      </c>
-      <c r="N1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1152,13 +1152,13 @@
         <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M2" t="s">
         <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1196,13 +1196,13 @@
         <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M3" t="s">
         <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1240,13 +1240,13 @@
         <v>11</v>
       </c>
       <c r="L4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M4" t="s">
         <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1284,13 +1284,13 @@
         <v>11</v>
       </c>
       <c r="L5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M5" t="s">
         <v>49</v>
       </c>
       <c r="N5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1334,13 +1334,13 @@
         <v>57</v>
       </c>
       <c r="H1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" t="s">
         <v>133</v>
       </c>
-      <c r="I1" t="s">
-        <v>134</v>
-      </c>
       <c r="J1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1354,7 +1354,7 @@
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
         <v>55</v>
@@ -1386,7 +1386,7 @@
         <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
         <v>55</v>
@@ -1418,7 +1418,7 @@
         <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
         <v>55</v>
@@ -1448,7 +1448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -1548,10 +1548,10 @@
         <v>72</v>
       </c>
       <c r="D1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" t="s">
         <v>136</v>
-      </c>
-      <c r="E1" t="s">
-        <v>137</v>
       </c>
       <c r="F1" t="s">
         <v>84</v>
@@ -1563,13 +1563,13 @@
         <v>87</v>
       </c>
       <c r="I1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J1" t="s">
         <v>74</v>
       </c>
       <c r="K1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L1" t="s">
         <v>77</v>
@@ -1578,19 +1578,19 @@
         <v>81</v>
       </c>
       <c r="N1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O1" t="s">
         <v>83</v>
       </c>
       <c r="P1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q1" t="s">
         <v>140</v>
       </c>
-      <c r="Q1" t="s">
-        <v>141</v>
-      </c>
       <c r="R1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -1604,7 +1604,7 @@
         <v>40000</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
         <v>80</v>
@@ -1643,10 +1643,10 @@
         <v>86</v>
       </c>
       <c r="Q2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -1660,7 +1660,7 @@
         <v>40000</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
         <v>80</v>
@@ -1699,10 +1699,10 @@
         <v>86</v>
       </c>
       <c r="Q3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -1716,7 +1716,7 @@
         <v>40000</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
         <v>80</v>
@@ -1755,10 +1755,10 @@
         <v>86</v>
       </c>
       <c r="Q4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -1772,7 +1772,7 @@
         <v>40000</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
         <v>80</v>
@@ -1811,10 +1811,10 @@
         <v>86</v>
       </c>
       <c r="Q5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1826,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1837,54 +1837,54 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1910,39 +1910,39 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/example-input/E-MTAB-5061-small.xlsx
+++ b/example-input/E-MTAB-5061-small.xlsx
@@ -838,7 +838,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -944,7 +944,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C18" sqref="A1:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C16" sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1054,7 +1054,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1449,7 +1449,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1518,12 +1518,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" customWidth="1"/>
     <col min="3" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" customWidth="1"/>
@@ -1535,6 +1536,8 @@
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="16" max="16" width="24.83203125" customWidth="1"/>
+    <col min="17" max="17" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -1827,7 +1830,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
